--- a/testData/EmployeeList.xlsx
+++ b/testData/EmployeeList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Firstname</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>Developer</t>
+  </si>
+  <si>
+    <t>Seniority Level</t>
+  </si>
+  <si>
+    <t>Mid-Level</t>
+  </si>
+  <si>
+    <t>Entry-Level</t>
+  </si>
+  <si>
+    <t>Senior-Level</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>6yaprak</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
 </sst>
 </file>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,9 +460,10 @@
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,8 +482,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -477,8 +505,11 @@
       <c r="F2" s="1">
         <v>105000</v>
       </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -497,8 +528,11 @@
       <c r="F3" s="1">
         <v>90000</v>
       </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -516,6 +550,32 @@
       </c>
       <c r="F4" s="1">
         <v>120000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>99999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
